--- a/data/trans_orig/P14C11-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14C11-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6BF66F5E-B7FA-4A7B-882B-61CE879C0A37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FF5F51AF-E4C9-4055-BB87-9780E34447A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9EC601AF-DEA4-402D-9963-025E55E645A5}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{321027D2-A64D-4B40-969A-A6E4FE379585}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="164">
   <si>
     <t>Población según el tiempo de diagnóstico del infarto de miocardio en 2015 (Tasa respuesta: 1,57%)</t>
   </si>
@@ -146,10 +146,10 @@
     <t>73,2%</t>
   </si>
   <si>
-    <t>46,42%</t>
-  </si>
-  <si>
-    <t>89,45%</t>
+    <t>46,79%</t>
+  </si>
+  <si>
+    <t>89,58%</t>
   </si>
   <si>
     <t>24,67%</t>
@@ -167,10 +167,10 @@
     <t>15,92%</t>
   </si>
   <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>39,43%</t>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>39,64%</t>
   </si>
   <si>
     <t>8,64%</t>
@@ -188,7 +188,7 @@
     <t>10,89%</t>
   </si>
   <si>
-    <t>38,29%</t>
+    <t>37,86%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -206,10 +206,10 @@
     <t>44,84%</t>
   </si>
   <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>80,81%</t>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>81,28%</t>
   </si>
   <si>
     <t>22,23%</t>
@@ -221,7 +221,7 @@
     <t>18,26%</t>
   </si>
   <si>
-    <t>71,5%</t>
+    <t>69,28%</t>
   </si>
   <si>
     <t>23,2%</t>
@@ -236,7 +236,7 @@
     <t>36,89%</t>
   </si>
   <si>
-    <t>83,19%</t>
+    <t>72,04%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -263,25 +263,28 @@
     <t>82,16%</t>
   </si>
   <si>
-    <t>21,54%</t>
+    <t>22,75%</t>
   </si>
   <si>
     <t>80,74%</t>
   </si>
   <si>
+    <t>46,96%</t>
+  </si>
+  <si>
     <t>21,45%</t>
   </si>
   <si>
     <t>17,84%</t>
   </si>
   <si>
-    <t>78,46%</t>
+    <t>77,25%</t>
   </si>
   <si>
     <t>19,26%</t>
   </si>
   <si>
-    <t>53,58%</t>
+    <t>53,04%</t>
   </si>
   <si>
     <t>Jaen</t>
@@ -290,7 +293,7 @@
     <t>67,81%</t>
   </si>
   <si>
-    <t>15,25%</t>
+    <t>17,69%</t>
   </si>
   <si>
     <t>60,82%</t>
@@ -305,16 +308,16 @@
     <t>63,52%</t>
   </si>
   <si>
-    <t>33,92%</t>
-  </si>
-  <si>
-    <t>86,12%</t>
+    <t>33,84%</t>
+  </si>
+  <si>
+    <t>86,55%</t>
   </si>
   <si>
     <t>17,85%</t>
   </si>
   <si>
-    <t>75,75%</t>
+    <t>69,27%</t>
   </si>
   <si>
     <t>25,11%</t>
@@ -326,16 +329,16 @@
     <t>22,31%</t>
   </si>
   <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>51,23%</t>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>51,04%</t>
   </si>
   <si>
     <t>14,34%</t>
   </si>
   <si>
-    <t>62,78%</t>
+    <t>62,3%</t>
   </si>
   <si>
     <t>14,07%</t>
@@ -347,7 +350,7 @@
     <t>14,18%</t>
   </si>
   <si>
-    <t>44,3%</t>
+    <t>40,87%</t>
   </si>
   <si>
     <t>Malaga</t>
@@ -356,25 +359,25 @@
     <t>79,81%</t>
   </si>
   <si>
-    <t>37,73%</t>
+    <t>41,33%</t>
   </si>
   <si>
     <t>86,32%</t>
   </si>
   <si>
-    <t>56,94%</t>
+    <t>56,7%</t>
   </si>
   <si>
     <t>20,19%</t>
   </si>
   <si>
-    <t>62,27%</t>
+    <t>58,67%</t>
   </si>
   <si>
     <t>13,68%</t>
   </si>
   <si>
-    <t>43,06%</t>
+    <t>43,3%</t>
   </si>
   <si>
     <t>13,49%</t>
@@ -386,142 +389,142 @@
     <t>78,72%</t>
   </si>
   <si>
-    <t>53,27%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
+    <t>53,54%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
   </si>
   <si>
     <t>77,87%</t>
   </si>
   <si>
-    <t>39,95%</t>
+    <t>39,48%</t>
   </si>
   <si>
     <t>78,43%</t>
   </si>
   <si>
-    <t>57,32%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
+    <t>61,06%</t>
+  </si>
+  <si>
+    <t>90,28%</t>
   </si>
   <si>
     <t>15,78%</t>
   </si>
   <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>39,48%</t>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>39,6%</t>
   </si>
   <si>
     <t>22,13%</t>
   </si>
   <si>
-    <t>60,05%</t>
+    <t>60,52%</t>
   </si>
   <si>
     <t>17,93%</t>
   </si>
   <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>34,83%</t>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>35,68%</t>
   </si>
   <si>
     <t>5,5%</t>
   </si>
   <si>
-    <t>27,29%</t>
+    <t>28,3%</t>
   </si>
   <si>
     <t>3,64%</t>
   </si>
   <si>
-    <t>18,02%</t>
+    <t>18,38%</t>
   </si>
   <si>
     <t>74,37%</t>
   </si>
   <si>
-    <t>62,83%</t>
-  </si>
-  <si>
-    <t>84,11%</t>
+    <t>62,33%</t>
+  </si>
+  <si>
+    <t>83,46%</t>
   </si>
   <si>
     <t>79,72%</t>
   </si>
   <si>
-    <t>64,31%</t>
-  </si>
-  <si>
-    <t>90,23%</t>
+    <t>64,24%</t>
+  </si>
+  <si>
+    <t>90,18%</t>
   </si>
   <si>
     <t>76,47%</t>
   </si>
   <si>
-    <t>66,79%</t>
-  </si>
-  <si>
-    <t>83,91%</t>
+    <t>67,54%</t>
+  </si>
+  <si>
+    <t>83,85%</t>
   </si>
   <si>
     <t>19,75%</t>
   </si>
   <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>31,47%</t>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>30,7%</t>
   </si>
   <si>
     <t>12,73%</t>
   </si>
   <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>25,85%</t>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>27,71%</t>
   </si>
   <si>
     <t>17,0%</t>
   </si>
   <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>26,2%</t>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>25,61%</t>
   </si>
   <si>
     <t>5,88%</t>
   </si>
   <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
   </si>
   <si>
     <t>7,54%</t>
   </si>
   <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
   </si>
   <si>
     <t>6,53%</t>
   </si>
   <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -936,7 +939,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70354AEB-9D08-4934-BD0C-BEDCDCCD79BC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00504292-D0C7-46F9-8E01-96B2FC84214D}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1917,7 +1920,7 @@
         <v>76</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>13</v>
@@ -1935,7 +1938,7 @@
         <v>799</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>20</v>
@@ -1950,13 +1953,13 @@
         <v>1030</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M21" s="7">
         <v>2</v>
@@ -1965,13 +1968,13 @@
         <v>1829</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P21" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2078,7 +2081,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2090,10 +2093,10 @@
         <v>3814</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>13</v>
@@ -2105,13 +2108,13 @@
         <v>5443</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M24" s="7">
         <v>9</v>
@@ -2120,13 +2123,13 @@
         <v>9257</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2141,13 +2144,13 @@
         <v>1004</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H25" s="7">
         <v>2</v>
@@ -2156,13 +2159,13 @@
         <v>2247</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M25" s="7">
         <v>3</v>
@@ -2171,13 +2174,13 @@
         <v>3251</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2192,13 +2195,13 @@
         <v>807</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -2207,13 +2210,13 @@
         <v>1259</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M26" s="7">
         <v>2</v>
@@ -2222,13 +2225,13 @@
         <v>2066</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2284,7 +2287,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2296,10 +2299,10 @@
         <v>7994</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>13</v>
@@ -2326,10 +2329,10 @@
         <v>12761</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q28" s="7" t="s">
         <v>13</v>
@@ -2347,13 +2350,13 @@
         <v>2023</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -2377,13 +2380,13 @@
         <v>2023</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P29" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2434,7 +2437,7 @@
         <v>22</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2490,7 +2493,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -2502,13 +2505,13 @@
         <v>14668</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H32" s="7">
         <v>6</v>
@@ -2517,10 +2520,10 @@
         <v>7435</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L32" s="7" t="s">
         <v>13</v>
@@ -2532,13 +2535,13 @@
         <v>22102</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2553,13 +2556,13 @@
         <v>2941</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H33" s="7">
         <v>2</v>
@@ -2568,13 +2571,13 @@
         <v>2112</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K33" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M33" s="7">
         <v>5</v>
@@ -2583,13 +2586,13 @@
         <v>5053</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -2604,13 +2607,13 @@
         <v>1026</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -2634,13 +2637,13 @@
         <v>1026</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="P34" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2708,13 +2711,13 @@
         <v>49081</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H36" s="7">
         <v>29</v>
@@ -2723,13 +2726,13 @@
         <v>33752</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M36" s="7">
         <v>78</v>
@@ -2738,13 +2741,13 @@
         <v>82833</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -2759,13 +2762,13 @@
         <v>13032</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H37" s="7">
         <v>5</v>
@@ -2774,13 +2777,13 @@
         <v>5389</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M37" s="7">
         <v>18</v>
@@ -2789,13 +2792,13 @@
         <v>18421</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -2810,13 +2813,13 @@
         <v>3879</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H38" s="7">
         <v>3</v>
@@ -2825,13 +2828,13 @@
         <v>3194</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M38" s="7">
         <v>7</v>
@@ -2840,13 +2843,13 @@
         <v>7074</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -2902,7 +2905,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P14C11-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14C11-Provincia-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FF5F51AF-E4C9-4055-BB87-9780E34447A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FB68D561-7038-4689-AEE6-19B4168006F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{321027D2-A64D-4B40-969A-A6E4FE379585}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{55B1A699-AE98-4308-9205-810A5091EEED}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="164">
   <si>
-    <t>Población según el tiempo de diagnóstico del infarto de miocardio en 2015 (Tasa respuesta: 1,57%)</t>
+    <t>Población según el tiempo de diagnóstico del infarto de miocardio en 2016 (Tasa respuesta: 1,57%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -74,7 +74,7 @@
     <t>53,83%</t>
   </si>
   <si>
-    <t>13,97%</t>
+    <t>13,74%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -89,7 +89,7 @@
     <t>76,08%</t>
   </si>
   <si>
-    <t>35,33%</t>
+    <t>38,95%</t>
   </si>
   <si>
     <t>De 1 a 4 años</t>
@@ -101,7 +101,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>86,03%</t>
+    <t>86,26%</t>
   </si>
   <si>
     <t>0%</t>
@@ -113,7 +113,7 @@
     <t>23,92%</t>
   </si>
   <si>
-    <t>64,67%</t>
+    <t>61,05%</t>
   </si>
   <si>
     <t>Ultimos 12 meses</t>
@@ -131,34 +131,34 @@
     <t>66,7%</t>
   </si>
   <si>
-    <t>31,91%</t>
-  </si>
-  <si>
-    <t>91,07%</t>
+    <t>35,71%</t>
+  </si>
+  <si>
+    <t>91,87%</t>
   </si>
   <si>
     <t>85,02%</t>
   </si>
   <si>
-    <t>36,3%</t>
+    <t>40,38%</t>
   </si>
   <si>
     <t>73,2%</t>
   </si>
   <si>
-    <t>46,79%</t>
-  </si>
-  <si>
-    <t>89,58%</t>
+    <t>48,7%</t>
+  </si>
+  <si>
+    <t>89,66%</t>
   </si>
   <si>
     <t>24,67%</t>
   </si>
   <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>55,54%</t>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>54,65%</t>
   </si>
   <si>
     <t>26,42%</t>
@@ -167,28 +167,28 @@
     <t>15,92%</t>
   </si>
   <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>39,64%</t>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>38,33%</t>
   </si>
   <si>
     <t>8,64%</t>
   </si>
   <si>
-    <t>42,97%</t>
+    <t>43,74%</t>
   </si>
   <si>
     <t>14,98%</t>
   </si>
   <si>
-    <t>63,7%</t>
+    <t>59,62%</t>
   </si>
   <si>
     <t>10,89%</t>
   </si>
   <si>
-    <t>37,86%</t>
+    <t>33,12%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -206,10 +206,10 @@
     <t>44,84%</t>
   </si>
   <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>81,28%</t>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>80,8%</t>
   </si>
   <si>
     <t>22,23%</t>
@@ -221,13 +221,13 @@
     <t>18,26%</t>
   </si>
   <si>
-    <t>69,28%</t>
+    <t>71,48%</t>
   </si>
   <si>
     <t>23,2%</t>
   </si>
   <si>
-    <t>76,97%</t>
+    <t>82,0%</t>
   </si>
   <si>
     <t>22,85%</t>
@@ -236,7 +236,7 @@
     <t>36,89%</t>
   </si>
   <si>
-    <t>72,04%</t>
+    <t>85,49%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -263,13 +263,13 @@
     <t>82,16%</t>
   </si>
   <si>
-    <t>22,75%</t>
+    <t>21,54%</t>
   </si>
   <si>
     <t>80,74%</t>
   </si>
   <si>
-    <t>46,96%</t>
+    <t>45,49%</t>
   </si>
   <si>
     <t>21,45%</t>
@@ -278,13 +278,13 @@
     <t>17,84%</t>
   </si>
   <si>
-    <t>77,25%</t>
+    <t>78,46%</t>
   </si>
   <si>
     <t>19,26%</t>
   </si>
   <si>
-    <t>53,04%</t>
+    <t>54,51%</t>
   </si>
   <si>
     <t>Jaen</t>
@@ -293,7 +293,7 @@
     <t>67,81%</t>
   </si>
   <si>
-    <t>17,69%</t>
+    <t>17,13%</t>
   </si>
   <si>
     <t>60,82%</t>
@@ -308,16 +308,16 @@
     <t>63,52%</t>
   </si>
   <si>
-    <t>33,84%</t>
-  </si>
-  <si>
-    <t>86,55%</t>
+    <t>35,87%</t>
+  </si>
+  <si>
+    <t>87,22%</t>
   </si>
   <si>
     <t>17,85%</t>
   </si>
   <si>
-    <t>69,27%</t>
+    <t>71,33%</t>
   </si>
   <si>
     <t>25,11%</t>
@@ -329,16 +329,16 @@
     <t>22,31%</t>
   </si>
   <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>51,04%</t>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>52,05%</t>
   </si>
   <si>
     <t>14,34%</t>
   </si>
   <si>
-    <t>62,3%</t>
+    <t>63,17%</t>
   </si>
   <si>
     <t>14,07%</t>
@@ -350,7 +350,7 @@
     <t>14,18%</t>
   </si>
   <si>
-    <t>40,87%</t>
+    <t>43,28%</t>
   </si>
   <si>
     <t>Malaga</t>
@@ -359,25 +359,25 @@
     <t>79,81%</t>
   </si>
   <si>
-    <t>41,33%</t>
+    <t>46,84%</t>
   </si>
   <si>
     <t>86,32%</t>
   </si>
   <si>
-    <t>56,7%</t>
+    <t>60,87%</t>
   </si>
   <si>
     <t>20,19%</t>
   </si>
   <si>
-    <t>58,67%</t>
+    <t>53,16%</t>
   </si>
   <si>
     <t>13,68%</t>
   </si>
   <si>
-    <t>43,3%</t>
+    <t>39,13%</t>
   </si>
   <si>
     <t>13,49%</t>
@@ -389,133 +389,133 @@
     <t>78,72%</t>
   </si>
   <si>
-    <t>53,54%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
+    <t>58,25%</t>
+  </si>
+  <si>
+    <t>94,59%</t>
   </si>
   <si>
     <t>77,87%</t>
   </si>
   <si>
-    <t>39,48%</t>
+    <t>39,22%</t>
   </si>
   <si>
     <t>78,43%</t>
   </si>
   <si>
-    <t>61,06%</t>
-  </si>
-  <si>
-    <t>90,28%</t>
+    <t>59,55%</t>
+  </si>
+  <si>
+    <t>92,51%</t>
   </si>
   <si>
     <t>15,78%</t>
   </si>
   <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>39,6%</t>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>38,11%</t>
   </si>
   <si>
     <t>22,13%</t>
   </si>
   <si>
-    <t>60,52%</t>
+    <t>60,78%</t>
   </si>
   <si>
     <t>17,93%</t>
   </si>
   <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>35,68%</t>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>37,33%</t>
   </si>
   <si>
     <t>5,5%</t>
   </si>
   <si>
-    <t>28,3%</t>
+    <t>25,37%</t>
   </si>
   <si>
     <t>3,64%</t>
   </si>
   <si>
-    <t>18,38%</t>
+    <t>16,97%</t>
   </si>
   <si>
     <t>74,37%</t>
   </si>
   <si>
-    <t>62,33%</t>
-  </si>
-  <si>
-    <t>83,46%</t>
+    <t>63,1%</t>
+  </si>
+  <si>
+    <t>84,41%</t>
   </si>
   <si>
     <t>79,72%</t>
   </si>
   <si>
-    <t>64,24%</t>
-  </si>
-  <si>
-    <t>90,18%</t>
+    <t>64,06%</t>
+  </si>
+  <si>
+    <t>89,75%</t>
   </si>
   <si>
     <t>76,47%</t>
   </si>
   <si>
-    <t>67,54%</t>
-  </si>
-  <si>
-    <t>83,85%</t>
+    <t>67,01%</t>
+  </si>
+  <si>
+    <t>83,79%</t>
   </si>
   <si>
     <t>19,75%</t>
   </si>
   <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>30,7%</t>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>30,52%</t>
   </si>
   <si>
     <t>12,73%</t>
   </si>
   <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>27,71%</t>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>26,3%</t>
   </si>
   <si>
     <t>17,0%</t>
   </si>
   <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>25,61%</t>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>25,03%</t>
   </si>
   <si>
     <t>5,88%</t>
   </si>
   <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
   </si>
   <si>
     <t>7,54%</t>
   </si>
   <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>18,99%</t>
   </si>
   <si>
     <t>6,53%</t>
@@ -524,7 +524,7 @@
     <t>2,73%</t>
   </si>
   <si>
-    <t>13,02%</t>
+    <t>12,34%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -939,7 +939,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00504292-D0C7-46F9-8E01-96B2FC84214D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0D33743-E6F2-4D57-91BB-D072DFA51934}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
